--- a/data/update_raw/IO_Make_table_2021_71industry.xlsx
+++ b/data/update_raw/IO_Make_table_2021_71industry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finnschule/Dropbox/BrownPhD/UnemploymentNetwork/data/update_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D261A-9D81-574A-89EC-CDFE9AF1C8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AE55FD-A80A-604A-A503-44BF3E74E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
   <si>
     <t>The Domestic Supply of Commodities by Industries - Summary</t>
   </si>
@@ -291,12 +291,15 @@
   <si>
     <t>T017</t>
   </si>
+  <si>
+    <t>Sector(3-digit)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -326,6 +329,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -369,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,9 +1148,9 @@
       <c r="CE4" s="4"/>
       <c r="CF4" s="4"/>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
+    <row r="6" spans="1:84" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
